--- a/Репозиторий..xlsx
+++ b/Репозиторий..xlsx
@@ -624,7 +624,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -659,7 +659,9 @@
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="5"/>
     </row>
@@ -668,7 +670,9 @@
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
@@ -677,7 +681,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
@@ -686,7 +692,9 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -695,7 +703,9 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
@@ -704,7 +714,9 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
@@ -713,7 +725,9 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -722,7 +736,9 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="6">
+        <v>9</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -731,7 +747,9 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -740,7 +758,9 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="6">
+        <v>9</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -749,7 +769,9 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
@@ -758,7 +780,9 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="6">
+        <v>9</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
@@ -767,7 +791,9 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="6">
+        <v>9</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
@@ -776,7 +802,9 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
@@ -785,7 +813,9 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
@@ -794,7 +824,9 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
@@ -803,7 +835,9 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
@@ -812,7 +846,9 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
@@ -821,7 +857,9 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
@@ -830,7 +868,9 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
@@ -839,7 +879,9 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
@@ -848,7 +890,9 @@
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
@@ -857,7 +901,9 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
@@ -866,7 +912,9 @@
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
@@ -875,7 +923,9 @@
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
@@ -884,7 +934,9 @@
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
@@ -893,7 +945,9 @@
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
@@ -902,7 +956,9 @@
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
@@ -911,7 +967,9 @@
       <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>

--- a/Репозиторий..xlsx
+++ b/Репозиторий..xlsx
@@ -624,7 +624,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -980,7 +980,9 @@
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
@@ -989,16 +991,20 @@
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="45">
       <c r="A33" s="1"/>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
@@ -1007,7 +1013,9 @@
       <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
@@ -1016,7 +1024,9 @@
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
@@ -1025,7 +1035,9 @@
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
@@ -1034,7 +1046,9 @@
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
@@ -1043,7 +1057,9 @@
       <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
@@ -1052,7 +1068,7 @@
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
@@ -1061,7 +1077,9 @@
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>

--- a/Репозиторий..xlsx
+++ b/Репозиторий..xlsx
@@ -180,9 +180,6 @@
     <t>7.Проверить кликабельность поля "Характеристики" товара.</t>
   </si>
   <si>
-    <t>8.Проверить корректоность отображения информации о подробных характеристиках товара.</t>
-  </si>
-  <si>
     <t>9.Проверить кликабельность поля "Цены".</t>
   </si>
   <si>
@@ -222,10 +219,13 @@
     <t>21.Проверить кликабельность поля "Описание".</t>
   </si>
   <si>
-    <t>22.Проверить кликабельность поле с предложениями магазинов.</t>
-  </si>
-  <si>
     <t>23.Проверить корректность ссылок на предложения магазинов.</t>
+  </si>
+  <si>
+    <t>8.Проверить корректность отображения информации о подробных характеристиках товара.</t>
+  </si>
+  <si>
+    <t>22.Проверить кликабельность поля с предложениями магазинов.</t>
   </si>
 </sst>
 </file>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,7 +1068,9 @@
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
@@ -1090,7 +1092,9 @@
       <c r="B41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="6">
+        <v>4</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
@@ -1099,7 +1103,9 @@
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
@@ -1108,7 +1114,9 @@
       <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
@@ -1117,7 +1125,9 @@
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
@@ -1126,7 +1136,9 @@
       <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
@@ -1135,7 +1147,9 @@
       <c r="B46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
@@ -1144,151 +1158,185 @@
       <c r="B47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="45">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" ht="30">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="1"/>
+      <c r="B51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" ht="30">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" ht="30">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" ht="30">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" ht="30">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" ht="30">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" ht="30">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" ht="30">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" ht="30">
       <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" ht="30">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" ht="30">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" ht="30">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C63" s="6">
+        <v>4</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
